--- a/trial-java-poi/src/main/resources/trial_book.xlsx
+++ b/trial-java-poi/src/main/resources/trial_book.xlsx
@@ -361,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -371,6 +371,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1">
+        <f>SUM(A2:A4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>1</v>
       </c>
     </row>
